--- a/teaching/traditional_assets/database/data/south_africa/south_africa_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/south_africa/south_africa_insurance_general.xlsx
@@ -590,32 +590,35 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.0372</v>
+      </c>
       <c r="G2">
-        <v>-1.253333333333333</v>
+        <v>-0.8216867469879519</v>
       </c>
       <c r="H2">
-        <v>-1.253333333333333</v>
+        <v>-0.8216867469879519</v>
       </c>
       <c r="I2">
-        <v>-1.272</v>
+        <v>-0.8313253012048193</v>
       </c>
       <c r="J2">
-        <v>-1.272</v>
+        <v>-0.8313253012048193</v>
       </c>
       <c r="K2">
-        <v>-46.1</v>
+        <v>-32.8</v>
       </c>
       <c r="L2">
-        <v>-1.229333333333333</v>
+        <v>-0.7903614457831325</v>
       </c>
       <c r="M2">
-        <v>0.576</v>
+        <v>0.112</v>
       </c>
       <c r="N2">
-        <v>0.008902627511591961</v>
+        <v>0.007777777777777778</v>
       </c>
       <c r="O2">
-        <v>-0.01249457700650759</v>
+        <v>-0.003414634146341464</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +630,79 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>0.576</v>
+        <v>0.112</v>
       </c>
       <c r="T2">
         <v>1</v>
       </c>
       <c r="U2">
-        <v>13.8</v>
+        <v>8.6</v>
       </c>
       <c r="V2">
-        <v>0.2132921174652241</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="W2">
-        <v>-0.4528487229862476</v>
+        <v>-0.6295585412667946</v>
       </c>
       <c r="X2">
-        <v>0.06061447242054872</v>
+        <v>0.0697865179974401</v>
       </c>
       <c r="Y2">
-        <v>-0.5134631954067963</v>
+        <v>-0.6993450592642346</v>
       </c>
       <c r="Z2">
-        <v>0.5056157050979546</v>
+        <v>1.039579158316633</v>
       </c>
       <c r="AA2">
-        <v>-0.6431431768845983</v>
+        <v>-0.8642284569138277</v>
       </c>
       <c r="AB2">
-        <v>0.05916037610312175</v>
+        <v>0.06347585515073567</v>
       </c>
       <c r="AC2">
-        <v>-0.7023035529877201</v>
+        <v>-0.9277043120645634</v>
       </c>
       <c r="AD2">
-        <v>4.42</v>
+        <v>3.99</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4.42</v>
+        <v>3.99</v>
       </c>
       <c r="AG2">
-        <v>-9.380000000000001</v>
+        <v>-4.609999999999999</v>
       </c>
       <c r="AH2">
-        <v>0.06394675925925926</v>
+        <v>0.2169657422512235</v>
       </c>
       <c r="AI2">
-        <v>0.07724571828032156</v>
+        <v>0.2831795599716111</v>
       </c>
       <c r="AJ2">
-        <v>-0.1695589298626175</v>
+        <v>-0.4708886618998978</v>
       </c>
       <c r="AK2">
-        <v>-0.2160294795025334</v>
+        <v>-0.8397085610200363</v>
       </c>
       <c r="AL2">
-        <v>0.225</v>
+        <v>0.48</v>
       </c>
       <c r="AM2">
-        <v>0.225</v>
+        <v>0.48</v>
       </c>
       <c r="AN2">
-        <v>-0.09404255319148937</v>
+        <v>-0.1170087976539589</v>
       </c>
       <c r="AO2">
-        <v>-212</v>
+        <v>-71.875</v>
       </c>
       <c r="AP2">
-        <v>0.1995744680851064</v>
+        <v>0.1351906158357771</v>
       </c>
       <c r="AQ2">
-        <v>-212</v>
+        <v>-71.875</v>
       </c>
     </row>
     <row r="3">
@@ -718,32 +721,35 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.0372</v>
+      </c>
       <c r="G3">
-        <v>-1.253333333333333</v>
+        <v>-0.8216867469879519</v>
       </c>
       <c r="H3">
-        <v>-1.253333333333333</v>
+        <v>-0.8216867469879519</v>
       </c>
       <c r="I3">
-        <v>-1.272</v>
+        <v>-0.8313253012048193</v>
       </c>
       <c r="J3">
-        <v>-1.272</v>
+        <v>-0.8313253012048193</v>
       </c>
       <c r="K3">
-        <v>-46.1</v>
+        <v>-32.8</v>
       </c>
       <c r="L3">
-        <v>-1.229333333333333</v>
+        <v>-0.7903614457831325</v>
       </c>
       <c r="M3">
-        <v>0.576</v>
+        <v>0.112</v>
       </c>
       <c r="N3">
-        <v>0.008902627511591961</v>
+        <v>0.007777777777777778</v>
       </c>
       <c r="O3">
-        <v>-0.01249457700650759</v>
+        <v>-0.003414634146341464</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +761,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.576</v>
+        <v>0.112</v>
       </c>
       <c r="T3">
         <v>1</v>
       </c>
       <c r="U3">
-        <v>13.8</v>
+        <v>8.6</v>
       </c>
       <c r="V3">
-        <v>0.2132921174652241</v>
+        <v>0.5972222222222222</v>
       </c>
       <c r="W3">
-        <v>-0.4528487229862476</v>
+        <v>-0.6295585412667946</v>
       </c>
       <c r="X3">
-        <v>0.06061447242054872</v>
+        <v>0.0697865179974401</v>
       </c>
       <c r="Y3">
-        <v>-0.5134631954067963</v>
+        <v>-0.6993450592642346</v>
       </c>
       <c r="Z3">
-        <v>0.5056157050979546</v>
+        <v>1.039579158316633</v>
       </c>
       <c r="AA3">
-        <v>-0.6431431768845983</v>
+        <v>-0.8642284569138277</v>
       </c>
       <c r="AB3">
-        <v>0.05916037610312175</v>
+        <v>0.06347585515073567</v>
       </c>
       <c r="AC3">
-        <v>-0.7023035529877201</v>
+        <v>-0.9277043120645634</v>
       </c>
       <c r="AD3">
-        <v>4.42</v>
+        <v>3.99</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4.42</v>
+        <v>3.99</v>
       </c>
       <c r="AG3">
-        <v>-9.380000000000001</v>
+        <v>-4.609999999999999</v>
       </c>
       <c r="AH3">
-        <v>0.06394675925925926</v>
+        <v>0.2169657422512235</v>
       </c>
       <c r="AI3">
-        <v>0.07724571828032156</v>
+        <v>0.2831795599716111</v>
       </c>
       <c r="AJ3">
-        <v>-0.1695589298626175</v>
+        <v>-0.4708886618998978</v>
       </c>
       <c r="AK3">
-        <v>-0.2160294795025334</v>
+        <v>-0.8397085610200363</v>
       </c>
       <c r="AL3">
-        <v>0.225</v>
+        <v>0.48</v>
       </c>
       <c r="AM3">
-        <v>0.225</v>
+        <v>0.48</v>
       </c>
       <c r="AN3">
-        <v>-0.09404255319148937</v>
+        <v>-0.1170087976539589</v>
       </c>
       <c r="AO3">
-        <v>-212</v>
+        <v>-71.875</v>
       </c>
       <c r="AP3">
-        <v>0.1995744680851064</v>
+        <v>0.1351906158357771</v>
       </c>
       <c r="AQ3">
-        <v>-212</v>
+        <v>-71.875</v>
       </c>
     </row>
   </sheetData>
